--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86921.61201880327</v>
+        <v>100647.9701562213</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9672899.183076676</v>
+        <v>10595069.58669741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23948531.80730239</v>
+        <v>24870702.21092311</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3318436.673677996</v>
+        <v>2804985.299426066</v>
       </c>
     </row>
     <row r="11">
@@ -8699,10 +8701,10 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8772,16 +8774,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -8927,22 +8929,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>150.3839754851235</v>
@@ -9006,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9240,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,22 +9722,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,16 +9804,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10112,19 +10114,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10194,7 +10196,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10747,7 +10749,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
         <v>65.92768427608706</v>
@@ -11224,13 +11226,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
@@ -11318,7 +11320,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23291,10 +23293,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23364,16 +23366,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23519,22 +23521,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23598,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23683,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23914,25 +23916,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23990,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24069,13 +24071,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
@@ -24084,13 +24086,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24151,22 +24153,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24227,13 +24229,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
@@ -24242,13 +24244,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24312,22 +24314,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24394,16 +24396,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24464,19 +24466,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -24485,7 +24487,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24540,7 +24542,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
@@ -24567,7 +24569,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24622,25 +24624,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24704,19 +24706,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24786,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24801,7 +24803,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24962,7 +24964,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25032,10 +25034,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25269,7 +25271,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25339,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -25424,13 +25426,13 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25506,7 +25508,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -25816,13 +25818,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25962,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25989,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26044,28 +26046,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>346980.2549709456</v>
+        <v>299611.2342861613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>346980.2549709456</v>
+        <v>198672.3952795103</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>151534.1472775484</v>
+        <v>132323.196540834</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331504.9109159742</v>
+        <v>132283.3796841913</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315780.4646544752</v>
+        <v>184381.8168526273</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>224584.7383881622</v>
+        <v>140024.9548369433</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>280663.8770478082</v>
+        <v>269475.1645366341</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>189592.2535619286</v>
+        <v>179835.782460946</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184977.636203706</v>
+        <v>185467.609241074</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>251283.0662909781</v>
+        <v>289845.3715817032</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198982.4344100975</v>
+        <v>187630.0974941521</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198982.4344100975</v>
+        <v>176776.1877733759</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>120036.5755573568</v>
+        <v>105825.8693519215</v>
       </c>
       <c r="F2" t="n">
-        <v>120036.5755573568</v>
+        <v>75544.21764992623</v>
       </c>
       <c r="G2" t="n">
-        <v>61402.74324933765</v>
+        <v>55639.45802832331</v>
       </c>
       <c r="H2" t="n">
-        <v>115393.9723408653</v>
+        <v>55627.51297133051</v>
       </c>
       <c r="I2" t="n">
-        <v>110676.6384624156</v>
+        <v>71257.04412186134</v>
       </c>
       <c r="J2" t="n">
-        <v>83317.92058252181</v>
+        <v>57949.98551715614</v>
       </c>
       <c r="K2" t="n">
-        <v>100141.6621804156</v>
+        <v>96785.04842706332</v>
       </c>
       <c r="L2" t="n">
-        <v>72820.17513465171</v>
+        <v>69893.2338043569</v>
       </c>
       <c r="M2" t="n">
-        <v>71435.78992718492</v>
+        <v>71582.78183839534</v>
       </c>
       <c r="N2" t="n">
-        <v>91327.41895336655</v>
+        <v>102896.1105405841</v>
       </c>
       <c r="O2" t="n">
-        <v>75637.22938910239</v>
+        <v>72231.52831431874</v>
       </c>
       <c r="P2" t="n">
-        <v>75637.22938910239</v>
+        <v>68975.35539808589</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E4" t="n">
-        <v>66894.91200377974</v>
+        <v>52684.2057983445</v>
       </c>
       <c r="F4" t="n">
-        <v>66894.91200377974</v>
+        <v>22402.55409634922</v>
       </c>
       <c r="G4" t="n">
-        <v>8261.079695760622</v>
+        <v>2497.794474746283</v>
       </c>
       <c r="H4" t="n">
-        <v>62252.3087872883</v>
+        <v>2485.849417753484</v>
       </c>
       <c r="I4" t="n">
-        <v>57534.97490883863</v>
+        <v>18115.3805682843</v>
       </c>
       <c r="J4" t="n">
-        <v>30176.25702894478</v>
+        <v>4808.321963579106</v>
       </c>
       <c r="K4" t="n">
-        <v>46999.99862683856</v>
+        <v>43643.38487348631</v>
       </c>
       <c r="L4" t="n">
-        <v>19678.51158107469</v>
+        <v>16751.57025077988</v>
       </c>
       <c r="M4" t="n">
-        <v>18294.1263736079</v>
+        <v>18441.11828481832</v>
       </c>
       <c r="N4" t="n">
-        <v>38185.75539978954</v>
+        <v>49754.44698700708</v>
       </c>
       <c r="O4" t="n">
-        <v>22495.56583552537</v>
+        <v>19089.86476074174</v>
       </c>
       <c r="P4" t="n">
-        <v>22495.56583552537</v>
+        <v>15833.69184450888</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000003</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000003</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000003</v>
       </c>
       <c r="E6" t="n">
-        <v>-83569.9485514313</v>
+        <v>-83569.94855143136</v>
       </c>
       <c r="F6" t="n">
-        <v>49530.0514485687</v>
+        <v>49530.05144856869</v>
       </c>
       <c r="G6" t="n">
         <v>49530.0514485687</v>
       </c>
       <c r="H6" t="n">
-        <v>49530.0514485687</v>
+        <v>49530.05144856871</v>
       </c>
       <c r="I6" t="n">
+        <v>49530.05144856871</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49530.05144856871</v>
+      </c>
+      <c r="K6" t="n">
         <v>49530.05144856868</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49530.0514485687</v>
-      </c>
-      <c r="K6" t="n">
-        <v>49530.05144856867</v>
       </c>
       <c r="L6" t="n">
         <v>49530.0514485687</v>
       </c>
       <c r="M6" t="n">
-        <v>49530.05144856869</v>
+        <v>49530.0514485687</v>
       </c>
       <c r="N6" t="n">
         <v>49530.05144856868</v>
       </c>
       <c r="O6" t="n">
-        <v>49530.05144856869</v>
+        <v>49530.05144856867</v>
       </c>
       <c r="P6" t="n">
-        <v>49530.05144856869</v>
+        <v>49530.05144856868</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100647.9701562213</v>
+        <v>-24461.9286412554</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10595069.58669741</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24870702.21092311</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2804985.299426066</v>
+        <v>4096725.403303645</v>
       </c>
     </row>
     <row r="11">
@@ -8701,10 +8701,10 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8774,16 +8774,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -8929,22 +8929,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
         <v>150.3839754851235</v>
@@ -9008,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9722,22 +9722,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9804,16 +9804,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,16 +10114,16 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
         <v>117.8828208804077</v>
@@ -10196,22 +10196,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -10749,7 +10749,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
         <v>92.09541281912071</v>
@@ -10828,16 +10828,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
         <v>135.4597561231036</v>
@@ -10910,10 +10910,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
@@ -11062,22 +11062,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
@@ -11299,28 +11299,28 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23293,10 +23293,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23366,16 +23366,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23521,22 +23521,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23600,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23916,25 +23916,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24071,28 +24071,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24153,22 +24153,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24229,28 +24229,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24314,22 +24314,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24396,16 +24396,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24466,28 +24466,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24545,28 +24545,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24624,25 +24624,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24706,16 +24706,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -24788,22 +24788,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24940,31 +24940,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25025,19 +25025,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25177,31 +25177,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25265,10 +25265,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -25341,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -25420,16 +25420,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -25502,10 +25502,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -25654,22 +25654,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25727,34 +25727,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25818,13 +25818,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25891,28 +25891,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25970,25 +25970,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26046,28 +26046,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>299611.2342861613</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>198672.3952795103</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>132323.196540834</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>132283.3796841913</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184381.8168526273</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140024.9548369433</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>269475.1645366341</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>179835.782460946</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185467.609241074</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>289845.3715817032</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187630.0974941521</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176776.1877733759</v>
+        <v>346980.2549709456</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>105825.8693519215</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="F2" t="n">
-        <v>75544.21764992623</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="G2" t="n">
-        <v>55639.45802832331</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="H2" t="n">
-        <v>55627.51297133051</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="I2" t="n">
-        <v>71257.04412186134</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="J2" t="n">
-        <v>57949.98551715614</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="K2" t="n">
-        <v>96785.04842706332</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="L2" t="n">
-        <v>69893.2338043569</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="M2" t="n">
-        <v>71582.78183839534</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="N2" t="n">
-        <v>102896.1105405841</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="O2" t="n">
-        <v>72231.52831431874</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="P2" t="n">
-        <v>68975.35539808589</v>
+        <v>120036.5755573567</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E4" t="n">
-        <v>52684.2057983445</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="F4" t="n">
-        <v>22402.55409634922</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="G4" t="n">
-        <v>2497.794474746283</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="H4" t="n">
-        <v>2485.849417753484</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="I4" t="n">
-        <v>18115.3805682843</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="J4" t="n">
-        <v>4808.321963579106</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="K4" t="n">
-        <v>43643.38487348631</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="L4" t="n">
-        <v>16751.57025077988</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="M4" t="n">
-        <v>18441.11828481832</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="N4" t="n">
-        <v>49754.44698700708</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="O4" t="n">
-        <v>19089.86476074174</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="P4" t="n">
-        <v>15833.69184450888</v>
+        <v>66894.91200377973</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000003</v>
+        <v>-48778.27397003479</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.60000000003</v>
+        <v>-48778.27397003479</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.60000000003</v>
+        <v>-48778.27397003479</v>
       </c>
       <c r="E6" t="n">
-        <v>-83569.94855143136</v>
+        <v>-98379.96539054526</v>
       </c>
       <c r="F6" t="n">
-        <v>49530.05144856869</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="G6" t="n">
-        <v>49530.0514485687</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="H6" t="n">
-        <v>49530.05144856871</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="I6" t="n">
-        <v>49530.05144856871</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="J6" t="n">
-        <v>49530.05144856871</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="K6" t="n">
-        <v>49530.05144856868</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="L6" t="n">
-        <v>49530.0514485687</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="M6" t="n">
-        <v>49530.0514485687</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="N6" t="n">
-        <v>49530.05144856868</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="O6" t="n">
-        <v>49530.05144856867</v>
+        <v>34720.03460945479</v>
       </c>
       <c r="P6" t="n">
-        <v>49530.05144856868</v>
+        <v>34720.03460945479</v>
       </c>
     </row>
   </sheetData>
